--- a/QuantLibXL/Data/XLS/080_Bond/030_RateHelpers/EUR_YCRH_BTP.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/030_RateHelpers/EUR_YCRH_BTP.xlsx
@@ -13,9 +13,6 @@
     <sheet name="BTPMayNov" sheetId="25" r:id="rId4"/>
     <sheet name="BTPFebAug" sheetId="26" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Currency</t>
   </si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>-ResPrem</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -775,22 +775,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1166,9 +1150,8 @@
       <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\030_RateHelpers\</v>
+      <c r="D8" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1340,12 +1323,12 @@
         <f>Currency&amp;"_YC"&amp;B2&amp;".xml"</f>
         <v>EUR_YCBTPALL.xml</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="46" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D4:D83),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>76</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="30" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="31"/>

--- a/QuantLibXL/Data/XLS/080_Bond/030_RateHelpers/EUR_YCRH_BTP.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/030_RateHelpers/EUR_YCRH_BTP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Currency</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>-ResPrem</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1147,9 @@
       <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>55</v>
+      <c r="D8" s="20" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\030_RateHelpers\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1324,12 +1322,12 @@
         <v>EUR_YCBTPALL.xml</v>
       </c>
       <c r="D2" s="46" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D4:D83),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="30" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D4:D83),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -2805,9 +2803,9 @@
         <f>_xll.qlBondHelper(B80&amp;"_RH"&amp;$B$2,C80,B80,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="33" t="str">
+      <c r="E80" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F80" s="31"/>
     </row>
@@ -2824,9 +2822,9 @@
         <f>_xll.qlBondHelper(B81&amp;"_RH"&amp;$B$2,C81,B81,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E81" s="33" t="str">
+      <c r="E81" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F81" s="31"/>
     </row>
@@ -2843,9 +2841,9 @@
         <f>_xll.qlBondHelper(B82&amp;"_RH"&amp;$B$2,C82,B82,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E82" s="33" t="str">
+      <c r="E82" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F82" s="31"/>
     </row>
@@ -2862,9 +2860,9 @@
         <f>_xll.qlBondHelper(B83&amp;"_RH"&amp;$B$2,C83,B83,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E83" s="33" t="str">
+      <c r="E83" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F83" s="31"/>
     </row>
@@ -2918,13 +2916,13 @@
         <f>Currency&amp;"_YC"&amp;D4&amp;".xml"</f>
         <v>EUR_YCBTPFebMayAugNov.xml</v>
       </c>
-      <c r="D2" s="46">
-        <f>IF(Serialize,_xll.ohObjectSave(D5:D30,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>26</v>
-      </c>
-      <c r="E2" s="30" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="46" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D5:D30,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="30" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -3498,13 +3496,13 @@
         <f>Currency&amp;"_YC"&amp;D4&amp;".xml"</f>
         <v>EUR_YCBTPMayNov.xml</v>
       </c>
-      <c r="D2" s="46">
-        <f>IF(Serialize,_xll.ohObjectSave(D5:D10,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="30" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="46" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D5:D10,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="30" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -3698,13 +3696,13 @@
         <f>Currency&amp;"_YC"&amp;D4&amp;".xml"</f>
         <v>EUR_YCBTPFebAug.xml</v>
       </c>
-      <c r="D2" s="46">
-        <f>IF(Serialize,_xll.ohObjectSave(D5:D24,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
-      </c>
-      <c r="E2" s="30" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="46" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D5:D24,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="30" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="31"/>
     </row>
